--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0016-026 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0016-026 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560EDA3B-701D-4AE1-BE10-2A1DA9C16401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C27119-ECEE-4F55-86A0-2893B6FC8461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0252" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,9 +89,6 @@
     <t xml:space="preserve">9166244046 </t>
   </si>
   <si>
-    <t>DGS-267</t>
-  </si>
-  <si>
     <t>Searching profiling nasabah &amp; memiliki sales kelolaan</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
 -Tidak tambah Nasabah ke family tree flagging.  Anjul :55210, cif kelolaan Utama :9166244046 9736118354
 (CIF 9315565540 si sales 47881)
 </t>
+  </si>
+  <si>
+    <t>SCD0016-026</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,13 +509,13 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>16</v>
